--- a/data/evaluation/evaluation_Center_Summer_Melons.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Melons.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6473.775614733184</v>
+        <v>6561.786563729326</v>
       </c>
       <c r="C4" t="n">
-        <v>69111504.08187473</v>
+        <v>71238386.26976922</v>
       </c>
       <c r="D4" t="n">
-        <v>8313.332910564495</v>
+        <v>8440.283542024476</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1495105106644711</v>
+        <v>0.1233369962852112</v>
       </c>
     </row>
     <row r="5">
